--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T07:10:55+00:00</t>
+    <t>2022-09-14T07:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T07:39:51+00:00</t>
+    <t>2022-09-26T10:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:10:35+00:00</t>
+    <t>2022-09-26T10:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationPrepostduktal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:51:47+00:00</t>
+    <t>2022-09-26T11:09:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
